--- a/dealwith_excel_demo/excel_file/ExcelData.xlsx
+++ b/dealwith_excel_demo/excel_file/ExcelData.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="16935" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="massage" sheetId="1" r:id="rId1"/>
@@ -19,51 +19,42 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神</t>
   </si>
   <si>
     <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>码农</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>码畜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">赵六 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>python</t>
@@ -73,9 +64,6 @@
   </si>
   <si>
     <t>php</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>c++</t>
@@ -133,12 +121,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -146,6 +132,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,12 +501,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -590,22 +580,43 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
     <row r="10" spans="1:12">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="K11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>16</v>
@@ -614,7 +625,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -628,7 +639,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -642,6 +653,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
--- a/dealwith_excel_demo/excel_file/ExcelData.xlsx
+++ b/dealwith_excel_demo/excel_file/ExcelData.xlsx
@@ -506,8 +506,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
